--- a/Capstone_regPrecise/nodes_G601.xlsx
+++ b/Capstone_regPrecise/nodes_G601.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
   <si>
     <t>from</t>
   </si>
@@ -62,19 +62,196 @@
     <t>nsrR</t>
   </si>
   <si>
+    <t>PF04343</t>
+  </si>
+  <si>
+    <t>hmp</t>
+  </si>
+  <si>
+    <t>nadA</t>
+  </si>
+  <si>
     <t>nadC</t>
   </si>
   <si>
+    <t>nrdA</t>
+  </si>
+  <si>
+    <t>nrdB</t>
+  </si>
+  <si>
+    <t>znuA2</t>
+  </si>
+  <si>
+    <t>znuC2</t>
+  </si>
+  <si>
+    <t>znuB2</t>
+  </si>
+  <si>
     <t>omr</t>
   </si>
   <si>
+    <t>zur</t>
+  </si>
+  <si>
+    <t>nifR3</t>
+  </si>
+  <si>
+    <t>ntrB</t>
+  </si>
+  <si>
+    <t>ntrC</t>
+  </si>
+  <si>
+    <t>ntrY</t>
+  </si>
+  <si>
     <t>ntrX</t>
   </si>
   <si>
+    <t>bphO</t>
+  </si>
+  <si>
+    <t>fcuA</t>
+  </si>
+  <si>
+    <t>bfd</t>
+  </si>
+  <si>
+    <t>SSF49503</t>
+  </si>
+  <si>
+    <t>mtr2</t>
+  </si>
+  <si>
     <t>COG3470</t>
   </si>
   <si>
+    <t>7732437</t>
+  </si>
+  <si>
+    <t>7732438</t>
+  </si>
+  <si>
+    <t>omp1</t>
+  </si>
+  <si>
+    <t>omp5</t>
+  </si>
+  <si>
+    <t>fhuA</t>
+  </si>
+  <si>
+    <t>omp7</t>
+  </si>
+  <si>
+    <t>omp2</t>
+  </si>
+  <si>
+    <t>7731829</t>
+  </si>
+  <si>
+    <t>exbB</t>
+  </si>
+  <si>
+    <t>exbD</t>
+  </si>
+  <si>
+    <t>tonB</t>
+  </si>
+  <si>
+    <t>fecI3</t>
+  </si>
+  <si>
+    <t>fecR3</t>
+  </si>
+  <si>
+    <t>recA</t>
+  </si>
+  <si>
+    <t>rmuC</t>
+  </si>
+  <si>
+    <t>yoaA</t>
+  </si>
+  <si>
+    <t>uvrA</t>
+  </si>
+  <si>
+    <t>dinB</t>
+  </si>
+  <si>
+    <t>lexA</t>
+  </si>
+  <si>
+    <t>iscR2</t>
+  </si>
+  <si>
+    <t>sufB</t>
+  </si>
+  <si>
+    <t>sufC</t>
+  </si>
+  <si>
+    <t>sufD</t>
+  </si>
+  <si>
+    <t>sufS</t>
+  </si>
+  <si>
+    <t>sufE2</t>
+  </si>
+  <si>
+    <t>sufT</t>
+  </si>
+  <si>
     <t>sufA</t>
+  </si>
+  <si>
+    <t>groS</t>
+  </si>
+  <si>
+    <t>groL</t>
+  </si>
+  <si>
+    <t>mntH</t>
+  </si>
+  <si>
+    <t>mntR</t>
+  </si>
+  <si>
+    <t>oapT</t>
+  </si>
+  <si>
+    <t>oapR</t>
+  </si>
+  <si>
+    <t>7733151</t>
+  </si>
+  <si>
+    <t>COG388</t>
+  </si>
+  <si>
+    <t>COG2516</t>
+  </si>
+  <si>
+    <t>APA01_41640</t>
+  </si>
+  <si>
+    <t>COG2144</t>
+  </si>
+  <si>
+    <t>rfaG</t>
+  </si>
+  <si>
+    <t>fnrN</t>
+  </si>
+  <si>
+    <t>ompW</t>
+  </si>
+  <si>
+    <t>hemN</t>
   </si>
 </sst>
 </file>
@@ -146,7 +323,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -154,15 +331,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#N/A</v>
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -170,47 +347,47 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#N/A</v>
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#N/A</v>
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#N/A</v>
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B11" t="e">
-        <v>#N/A</v>
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -218,7 +395,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -226,39 +403,39 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B17" t="e">
-        <v>#N/A</v>
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -266,47 +443,47 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B23" t="e">
-        <v>#N/A</v>
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -314,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -322,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -330,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
@@ -338,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -346,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
@@ -354,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
@@ -362,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -370,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -378,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
@@ -386,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -394,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
@@ -402,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
@@ -410,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37">
@@ -418,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
@@ -426,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
@@ -434,111 +611,111 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B45" t="e">
-        <v>#N/A</v>
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B52" t="e">
-        <v>#N/A</v>
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="53">
@@ -546,223 +723,127 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B61" t="e">
-        <v>#N/A</v>
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B64" t="e">
-        <v>#N/A</v>
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B67" t="e">
-        <v>#N/A</v>
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B70" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B77" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
         <v>14</v>
       </c>
-      <c r="B78" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" t="e">
-        <v>#N/A</v>
+      <c r="B68" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
